--- a/Esercizio 1-2 Giorno 1 Mario.xlsx
+++ b/Esercizio 1-2 Giorno 1 Mario.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D04364-9357-4BD7-873C-EEFFAD37786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2BE9B-4A51-4DF7-A3B5-7FD6F24B4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizio base" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,6 +321,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -328,7 +354,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -373,6 +399,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1192,8 +1224,8 @@
   </sheetPr>
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1284,7 @@
         <v>2823.3333333333335</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1295,11 +1327,11 @@
         <f t="shared" si="1"/>
         <v>2596.6666666666665</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1352,7 @@
         <f t="shared" si="1"/>
         <v>2598</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1515,9 +1547,9 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
